--- a/Config/GameConfig/Datas/SpellDesc.xlsx
+++ b/Config/GameConfig/Datas/SpellDesc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\proj_tps\Config\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\LanGamePlay\Config\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988AC49F-9AAE-4C91-9618-B5A9498FB446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A33D1AC-4929-410A-9F9E-3FF0E799DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,10 +106,6 @@
     <t>Assets/AssetRaw/UIRaw/RPGUI/Spell &amp; Item Icons/Icon_Arrows_128.png</t>
   </si>
   <si>
-    <t>Skill_1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹技</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -233,6 +229,10 @@
   </si>
   <si>
     <t>技能ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_skill_1001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,49 +641,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -700,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -773,28 +773,28 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>16</v>
@@ -817,13 +817,13 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -832,16 +832,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>300</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -861,25 +861,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
       <c r="K6">
         <v>1000</v>
@@ -905,22 +905,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
       </c>
       <c r="K7">
         <v>2000</v>
